--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_102.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05610859728506788</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
+          <t>jaah_28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07357750163505558</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>[['Bb:min7', 'Ab:7', 'Db:maj6'], ['Ab:7', 'Db:maj6', 'Db:maj6'], ['Eb:min7', 'Ab:7', 'Db:maj6']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.8, 13.48)]</t>
+          <t>[['G:min7', 'F:7', 'Bb:maj6'], ['F:7', 'Bb:maj6', 'Bb:maj6'], ['C:min7', 'F:7', 'Bb:maj6']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(49.58, 52.97)]</t>
+          <t>[('0:00:15.700000', '0:00:18.830000'), ('0:00:16.960000', '0:00:19.460000'), ('0:00:03.200000', '0:00:06.960000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:11.900000', '0:00:13.120000'), ('0:00:25.340000', '0:00:26.580000'), ('0:00:05.790000', '0:00:07')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1539473684210526</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:min', 'D', 'G'], ['G', 'E:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1426282051282051</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C#:min', 'B', 'E'], ['E', 'C#:min', 'B']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.034751, 11.60754), (4.135884, 9.738333)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(29.238402, 35.99276), (15.7914, 22.536738)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08465818759936408</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68), (13.74, 16.3)]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.06, 17.06), (4.84, 10.64)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_24</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02805422100205902</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_21</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1457800511508952</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7']]</t>
+          <t>[['G/3', 'C', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.72, 43.17)]</t>
+          <t>[['B', 'E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.41, 20.15)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:02:10.528000', '0:02:12.075000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:21.130907', '0:02:36.734716')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06266149870801033</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:min', 'Eb:min']]</t>
-        </is>
+          <t>jaah_35</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05896711202466598</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(6.96, 9.2)]</t>
+          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:34.550000', '0:00:43.240000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:02.600000', '0:00:03.800000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1174089068825911</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(40.03, 43.842)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(32.48, 45.82)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(100.74, 121.4)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:01.420000', '0:01:11')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.46, 3.22)]</t>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'G']]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(55.18, 65.56)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(70.203514, 92.97068)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:10.260000', '0:00:24.700000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_19</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05607940446650124</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Ab:maj7', 'F:7', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Ab:maj7', 'F:7', 'Bb:7']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(98.3, 100.01)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.96, 10.2)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07697368421052631</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7058823529411764</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'G', 'D']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.645256, 11.062412)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.004648, 17.670317)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:59.623968', '0:02:13.196031')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2642857142857143</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.26, 24.7)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(42.52, 50.16)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.480839, 6.357029)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1238738738738739</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(75.52, 79.7)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(60.761383, 69.294716)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
